--- a/건물분류.xlsx
+++ b/건물분류.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,19 +70,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟 상승량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭 최대치로 성공할 경우 방어력 3 또는 체력 30 상승
+단계벌로 방어력 1~2 또는 체력 10~20 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치된 용사 전투력의 10%에 해당하는 수치를
+ 공격력 또는 공격속도를 선택하여 스텟상승 추가 배치되는 용사는 한 명당 전투력의 5%제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 후 시체를 획득하면 
+이 건물을 통해 언데드를 생성할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 방어 스텟을
+ 높이는 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사를 납치해 와서 몬스터의 
+공격 관련 스텟을 높이는 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용사를 납치해 와서 몬스터의 공격 관련 스텟을 높이는 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 방어 스텟을 높이는 건물</t>
+    <t>이 건물을 건설한
+후에 노예를 배치하여
+식량을 생산할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망한 몬스터의 시체를
+가지고 일정 골드를
+지불하면 몬스터를 부활시킬 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신과 시간의 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 후 모든 행동의
+완료 시간이 1.5배 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 내 미니게임을 통해
+확률 관련 스텟을 높이는 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,12 +212,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,50 +276,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1733550" y="387350"/>
-          <a:ext cx="1142857" cy="1015873"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1307957</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1174623</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7753350" y="374650"/>
           <a:ext cx="1142857" cy="1015873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -513,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -538,13 +576,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="115" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="115" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -553,57 +596,95 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -612,7 +693,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -621,7 +702,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -630,7 +711,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -639,7 +720,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -648,7 +729,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -657,7 +738,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -666,7 +747,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -675,7 +756,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -684,7 +765,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -732,6 +813,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/건물분류.xlsx
+++ b/건물분류.xlsx
@@ -24,17 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>훈련소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카지노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,16 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망한 몬스터의 시체를
-가지고 일정 골드를
-지불하면 몬스터를 부활시킬 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정신과 시간의 방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +152,39 @@
   </si>
   <si>
     <t>150000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일당 스트레스 15상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회당 스트레스 20상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패배시 스트레스 40상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장료를 지불하고 몬스터의 스트레스 수치를 20 감소시킬 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수명이 1년 이하로 남은 몬스터에게 
+수술을 실시하여 30%확률로 1년의 추가 수명을 제공한다. 5%확률로 수술이 실패하여 몬스터가 사망한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카지노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,6 +296,226 @@
         <a:xfrm>
           <a:off x="1733550" y="387350"/>
           <a:ext cx="1142857" cy="1015873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1117600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378200" y="571500"/>
+          <a:ext cx="857250" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1155700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="419100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12452350" y="635000"/>
+          <a:ext cx="857250" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1193800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302750" y="457200"/>
+          <a:ext cx="1143000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1206500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7804150" y="469900"/>
+          <a:ext cx="1143000" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -551,15 +790,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,27 +806,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="115" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -596,104 +838,113 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="136" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -702,7 +953,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -711,7 +962,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -720,7 +971,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -729,7 +980,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -738,7 +989,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -747,7 +998,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -756,7 +1007,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -765,7 +1016,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/건물분류.xlsx
+++ b/건물분류.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장례식장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +181,10 @@
   </si>
   <si>
     <t>카지노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동묘지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,15 +395,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1155700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,7 +426,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12452350" y="635000"/>
+          <a:off x="12458700" y="609600"/>
           <a:ext cx="857250" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,6 +516,94 @@
         <a:xfrm>
           <a:off x="7804150" y="469900"/>
           <a:ext cx="1143000" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1136650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="400050"/>
+          <a:ext cx="1333500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356350" y="387350"/>
+          <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -806,30 +894,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -840,63 +928,63 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="136" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -905,40 +993,40 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/건물분류.xlsx
+++ b/건물분류.xlsx
@@ -80,21 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건설 후 시체를 획득하면 
-이 건물을 통해 언데드를 생성할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 방어 스텟을
- 높이는 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용사를 납치해 와서 몬스터의 
-공격 관련 스텟을 높이는 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,26 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 건물을 건설한
-후에 노예를 배치하여
-식량을 생산할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정신과 시간의 방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건설 후 모든 행동의
-완료 시간이 1.5배 빨라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 내 미니게임을 통해
-확률 관련 스텟을 높이는 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건설 비용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,20 +140,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입장료를 지불하고 몬스터의 스트레스 수치를 20 감소시킬 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수명이 1년 이하로 남은 몬스터에게 
-수술을 실시하여 30%확률로 1년의 추가 수명을 제공한다. 5%확률로 수술이 실패하여 몬스터가 사망한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카지노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공동묘지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련소를 건설하면 용사를 납치해 와서 몬스터의 공격력 또는 공격속도를 향상시킬 수 있습니다. 훈련을 받는 몬스터는 스트레스가 쌓이게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육관을 건설하면 몬스터의 방어력 또는 체력을 단련시킬 수 있습니다. 단련 과정에서 몬스터의 스트레스가 쌓이게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카지노를 건설하면 미니게임을 통해 몬스터의 회피율 또는 치명타율을 높일 수 있습니다. 게임에서 패배할 경우 몬스터의 스트레스가 쌓이게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동묘지를 건설하면 각종 시체를 이용해 언데드 몬스터를 생성할 수 있습니다. 언데드를 생성하는 데는 시체와 일정 골드가 소모됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축사를 건설하면 납치해 온 노예를 이용해서 식량을 생산할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이공원을 건설하면 입장료를 지불하고 몬스터의 스트레스 수치를 완화시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신과 시간의 방을 건설하면 모든 행동의 속도가 1.5배 빨라지게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원을 건설하면 수명이 얼마 남지 않은 몬스터에게 수술을 실시하여 일정 확률로 추가 수명을 부여할 수 있습니다. 낮은 확률로 수술이 실패하여 몬스터가 사망할 수 있습니다.(수명이 1년 이하로 남은 몬스터에게 
+수술을 실시하여 30%확률로 1년의 추가 수명을 제공한다. 5%확률로 수술이 실패하여 몬스터가 사망한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.9140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -897,22 +890,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="115" customHeight="1" x14ac:dyDescent="0.45">
@@ -926,33 +919,33 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -972,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -993,40 +986,40 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
